--- a/spec/test.xlsx
+++ b/spec/test.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="param" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +19,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,1077 +384,1482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>112</v>
-      </c>
-      <c r="B1">
-        <v>113</v>
-      </c>
-      <c r="C1">
-        <v>114</v>
-      </c>
-      <c r="D1">
-        <v>115</v>
-      </c>
-      <c r="E1">
-        <v>116</v>
-      </c>
-      <c r="F1">
-        <v>117</v>
-      </c>
-      <c r="G1">
-        <v>118</v>
-      </c>
-      <c r="H1">
-        <v>119</v>
-      </c>
-      <c r="I1">
-        <v>120</v>
-      </c>
-      <c r="J1">
-        <v>121</v>
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>115</v>
-      </c>
-      <c r="E4">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J8">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J15">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C17">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I17">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="C18">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H18">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H19">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="C21">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I22">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C23">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I23">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J24">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="C25">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I25">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H26">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I29">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J29">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="C30">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C31">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="J31">
-        <v>121</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>42</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>47</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>49</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>51</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>157</v>
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1418,4 +1867,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>121</v>
+      </c>
+      <c r="E5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+      <c r="E6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>212</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/spec/test.xlsx
+++ b/spec/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="param" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>你好</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,11 +56,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成绩</t>
+    <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分数</t>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -395,31 +419,31 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -500,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -1984,11 +2008,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2010,30 +2032,266 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
